--- a/Data/carton.xlsx
+++ b/Data/carton.xlsx
@@ -5,23 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6009c37c8034e685/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanom\Documents\Projects\python\sync_yazaki\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6094183-A605-4F7A-9C94-150DF6466F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC119C4D-CF59-4177-8ED6-7F13162EC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7116-6041" sheetId="16" r:id="rId1"/>
     <sheet name="7126-8855-02" sheetId="17" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="166">
   <si>
     <t>S2F0305643</t>
   </si>
@@ -2011,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2057,7 +2069,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -2083,7 +2095,8 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>182</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -2109,7 +2122,8 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>183</v>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2135,7 +2149,8 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>184</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2161,7 +2176,8 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -2187,7 +2203,8 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2213,7 +2230,8 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>187</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2239,7 +2257,8 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>188</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2265,7 +2284,8 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>181</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -2291,7 +2311,8 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>182</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -2317,7 +2338,8 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2343,7 +2365,8 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>184</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -2369,7 +2392,8 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2395,7 +2419,8 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2421,7 +2446,8 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>187</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2447,7 +2473,8 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>188</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2473,7 +2500,8 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>189</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -2499,7 +2527,8 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -2525,7 +2554,8 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>191</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -2551,7 +2581,8 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>192</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2577,7 +2608,8 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>193</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -2603,7 +2635,8 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>194</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -2629,7 +2662,8 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>195</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -2655,7 +2689,8 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>196</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -2681,7 +2716,8 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>197</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -2707,7 +2743,8 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>198</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -2733,7 +2770,8 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>199</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -2759,7 +2797,8 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -2785,7 +2824,8 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>201</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -2811,7 +2851,8 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>202</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -2837,7 +2878,8 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>203</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -2863,7 +2905,8 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -2884,6 +2927,1302 @@
         <v>4500</v>
       </c>
       <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34">
+        <v>6000</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>6000</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36">
+        <v>6000</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37">
+        <v>6000</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38">
+        <v>6000</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>6000</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>6000</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41">
+        <v>6000</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42">
+        <v>6000</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <v>6000</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44">
+        <v>6000</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45">
+        <v>6000</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46">
+        <v>6000</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47">
+        <v>6000</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48">
+        <v>6000</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49">
+        <v>6000</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50">
+        <v>6000</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51">
+        <v>6000</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52">
+        <v>6000</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53">
+        <v>6000</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54">
+        <v>6000</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55">
+        <v>6000</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56">
+        <v>6000</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57">
+        <v>6000</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58">
+        <v>6000</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>6000</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60">
+        <v>6000</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61">
+        <v>6000</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62">
+        <v>6000</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63">
+        <v>6000</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64">
+        <v>6000</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65">
+        <v>6000</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66">
+        <v>6000</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67">
+        <v>6000</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <f t="shared" ref="A68:A81" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68">
+        <v>6000</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69">
+        <v>6000</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70">
+        <v>6000</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71">
+        <v>6000</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72">
+        <v>6000</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73">
+        <v>6000</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74">
+        <v>6000</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75">
+        <v>6000</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76">
+        <v>6000</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77">
+        <v>6000</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78">
+        <v>6000</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79">
+        <v>6000</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80">
+        <v>6000</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81">
+        <v>6000</v>
+      </c>
+      <c r="H81">
         <v>3</v>
       </c>
     </row>
@@ -2896,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
